--- a/docs/data/scores/2025_wk05_scores.xlsx
+++ b/docs/data/scores/2025_wk05_scores.xlsx
@@ -447,6 +447,9 @@
       <c r="D2" s="2">
         <v>23.0</v>
       </c>
+      <c r="E2" s="2">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -458,6 +461,12 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -469,6 +478,12 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -480,6 +495,12 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D5" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -491,6 +512,12 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D6" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>37.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -502,6 +529,12 @@
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D7" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -513,6 +546,12 @@
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D8" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -524,6 +563,12 @@
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D9" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -535,6 +580,12 @@
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D10" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -546,6 +597,12 @@
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="D11" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>38.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -557,6 +614,12 @@
       <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="D12" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>37.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -568,6 +631,12 @@
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D13" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -579,6 +648,12 @@
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="D14" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -589,6 +664,12 @@
       </c>
       <c r="C15" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="D15" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>28.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
